--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -633,13 +633,13 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>1.985116279069767</v>
+        <v>1.99</v>
       </c>
       <c r="C2">
-        <v>2.082727272727273</v>
+        <v>2.08</v>
       </c>
       <c r="D2">
-        <v>0.8879069767441862</v>
+        <v>0.89</v>
       </c>
       <c r="E2">
         <v>0.03</v>
@@ -651,13 +651,13 @@
         <v>-0.04</v>
       </c>
       <c r="H2">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I2">
         <v>-0.04</v>
       </c>
       <c r="J2">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K2">
         <v>-0.04</v>
@@ -675,16 +675,16 @@
         <v>17.47</v>
       </c>
       <c r="P2">
-        <v>-0.07785714285714283</v>
+        <v>-0.08</v>
       </c>
       <c r="Q2">
-        <v>-0.07976190476190474</v>
+        <v>-0.08</v>
       </c>
       <c r="R2">
-        <v>-0.07785714285714283</v>
+        <v>-0.08</v>
       </c>
       <c r="S2">
-        <v>-0.07976190476190474</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -698,7 +698,7 @@
         <v>0.03</v>
       </c>
       <c r="D3">
-        <v>0.8879069767441862</v>
+        <v>0.89</v>
       </c>
       <c r="E3">
         <v>0.03</v>
@@ -710,13 +710,13 @@
         <v>-0.02</v>
       </c>
       <c r="H3">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I3">
         <v>-0.02</v>
       </c>
       <c r="J3">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K3">
         <v>-0.02</v>
@@ -734,16 +734,16 @@
         <v>17.47</v>
       </c>
       <c r="P3">
-        <v>-0.07785714285714283</v>
+        <v>-0.08</v>
       </c>
       <c r="Q3">
-        <v>-0.07976190476190474</v>
+        <v>-0.08</v>
       </c>
       <c r="R3">
-        <v>-0.07785714285714283</v>
+        <v>-0.08</v>
       </c>
       <c r="S3">
-        <v>-0.07976190476190474</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -769,13 +769,13 @@
         <v>-0.06</v>
       </c>
       <c r="H4">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I4">
         <v>-0.06</v>
       </c>
       <c r="J4">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>-0.06</v>
@@ -793,16 +793,16 @@
         <v>17.47</v>
       </c>
       <c r="P4">
-        <v>-0.07785714285714283</v>
+        <v>-0.08</v>
       </c>
       <c r="Q4">
-        <v>-0.07976190476190474</v>
+        <v>-0.08</v>
       </c>
       <c r="R4">
-        <v>-0.07785714285714283</v>
+        <v>-0.08</v>
       </c>
       <c r="S4">
-        <v>-0.07976190476190474</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -810,7 +810,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>1.985116279069767</v>
+        <v>1.99</v>
       </c>
       <c r="C5">
         <v>0.3</v>
@@ -828,13 +828,13 @@
         <v>-0.02</v>
       </c>
       <c r="H5">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I5">
         <v>-0.02</v>
       </c>
       <c r="J5">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K5">
         <v>-0.02</v>
@@ -887,13 +887,13 @@
         <v>0.24</v>
       </c>
       <c r="H6">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I6">
         <v>0.24</v>
       </c>
       <c r="J6">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K6">
         <v>0.24</v>
@@ -946,13 +946,13 @@
         <v>1.08</v>
       </c>
       <c r="H7">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I7">
         <v>1.08</v>
       </c>
       <c r="J7">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K7">
         <v>1.08</v>
@@ -1011,7 +1011,7 @@
         <v>0.33</v>
       </c>
       <c r="J8">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K8">
         <v>0.33</v>
@@ -1055,7 +1055,7 @@
         <v>0.65</v>
       </c>
       <c r="E9">
-        <v>0.1678048780487805</v>
+        <v>0.17</v>
       </c>
       <c r="F9">
         <v>0.19</v>
@@ -1064,13 +1064,13 @@
         <v>0.53</v>
       </c>
       <c r="H9">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I9">
         <v>0.53</v>
       </c>
       <c r="J9">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K9">
         <v>0.53</v>
@@ -1114,7 +1114,7 @@
         <v>0.29</v>
       </c>
       <c r="E10">
-        <v>0.1678048780487805</v>
+        <v>0.17</v>
       </c>
       <c r="F10">
         <v>0.54</v>
@@ -1129,7 +1129,7 @@
         <v>0.68</v>
       </c>
       <c r="J10">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K10">
         <v>0.68</v>
@@ -1173,7 +1173,7 @@
         <v>0.41</v>
       </c>
       <c r="E11">
-        <v>0.1678048780487805</v>
+        <v>0.17</v>
       </c>
       <c r="F11">
         <v>0.26</v>
@@ -1182,13 +1182,13 @@
         <v>0.72</v>
       </c>
       <c r="H11">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I11">
         <v>0.72</v>
       </c>
       <c r="J11">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K11">
         <v>0.72</v>
@@ -1247,7 +1247,7 @@
         <v>0.48</v>
       </c>
       <c r="J12">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K12">
         <v>0.48</v>
@@ -1300,13 +1300,13 @@
         <v>0.35</v>
       </c>
       <c r="H13">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I13">
         <v>0.35</v>
       </c>
       <c r="J13">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K13">
         <v>0.35</v>
@@ -1359,13 +1359,13 @@
         <v>0.34</v>
       </c>
       <c r="H14">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I14">
         <v>0.34</v>
       </c>
       <c r="J14">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K14">
         <v>0.34</v>
@@ -1418,13 +1418,13 @@
         <v>0.37</v>
       </c>
       <c r="H15">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I15">
         <v>0.37</v>
       </c>
       <c r="J15">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K15">
         <v>0.37</v>
@@ -1483,7 +1483,7 @@
         <v>0.38</v>
       </c>
       <c r="J16">
-        <v>0.04966666666666666</v>
+        <v>0.05</v>
       </c>
       <c r="K16">
         <v>0.38</v>
@@ -1527,7 +1527,7 @@
         <v>0.4</v>
       </c>
       <c r="E17">
-        <v>0.1678048780487805</v>
+        <v>0.17</v>
       </c>
       <c r="F17">
         <v>0.18</v>
@@ -1772,7 +1772,7 @@
         <v>-1.66</v>
       </c>
       <c r="H21">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I21">
         <v>-1.66</v>
@@ -1890,7 +1890,7 @@
         <v>0.72</v>
       </c>
       <c r="H23">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I23">
         <v>0.72</v>
@@ -2008,7 +2008,7 @@
         <v>-0.45</v>
       </c>
       <c r="H25">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I25">
         <v>-0.45</v>
@@ -2303,7 +2303,7 @@
         <v>0.6</v>
       </c>
       <c r="H30">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I30">
         <v>0.6</v>
@@ -2362,7 +2362,7 @@
         <v>0.63</v>
       </c>
       <c r="H31">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I31">
         <v>0.63</v>
@@ -2480,7 +2480,7 @@
         <v>0.92</v>
       </c>
       <c r="H33">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I33">
         <v>0.92</v>
@@ -2539,7 +2539,7 @@
         <v>0.51</v>
       </c>
       <c r="H34">
-        <v>0.1259259259259259</v>
+        <v>0.13</v>
       </c>
       <c r="I34">
         <v>0.51</v>
